--- a/excel/comparison.xlsx
+++ b/excel/comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinji/mahjong/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinji/mahjong/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984ED9D1-C9BB-954E-900C-808271ABDE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC47ABDB-FFEE-5A41-B36A-FE6C9A8FF939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15760" xr2:uid="{0F54FE9E-C7FC-9A43-B696-68D9C6AE24C6}"/>
   </bookViews>
@@ -540,106 +540,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.188588976866852</c:v>
+                  <c:v>0.20056429953360899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.243310820494408</c:v>
+                  <c:v>0.26683363834960599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25366980906424402</c:v>
+                  <c:v>0.27514784361733002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28929179602336302</c:v>
+                  <c:v>0.31940038735753101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30738251651793702</c:v>
+                  <c:v>0.33519883761401398</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28931217445755297</c:v>
+                  <c:v>0.31811288047934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.240440732516606</c:v>
+                  <c:v>0.27239218574266999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22552010330969799</c:v>
+                  <c:v>0.24718686586566499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18871065857792499</c:v>
+                  <c:v>0.219586124289124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.190304145022961</c:v>
+                  <c:v>0.213954179175671</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22644565625812399</c:v>
+                  <c:v>0.25494631532606499</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.257414064227245</c:v>
+                  <c:v>0.27861790850277701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28798534069937198</c:v>
+                  <c:v>0.316417244902505</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30240193534127102</c:v>
+                  <c:v>0.33476154467445202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29506261544846202</c:v>
+                  <c:v>0.31392782250350398</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24469426629309299</c:v>
+                  <c:v>0.27083829480323202</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.22048705061504001</c:v>
+                  <c:v>0.25416758230451397</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18498209133014701</c:v>
+                  <c:v>0.20178105992564299</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.19274368832562799</c:v>
+                  <c:v>0.198906730419532</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.23348411072433101</c:v>
+                  <c:v>0.25734344989908597</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.24478362172443999</c:v>
+                  <c:v>0.27151029070681998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28486843781286803</c:v>
+                  <c:v>0.31778660675003501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.29805124143713402</c:v>
+                  <c:v>0.330622546236436</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.29030147462892503</c:v>
+                  <c:v>0.31420523135672901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.24951307551862301</c:v>
+                  <c:v>0.27291996295259202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.23159289102339201</c:v>
+                  <c:v>0.25652432717638501</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.18946887341682001</c:v>
+                  <c:v>0.203198100669753</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.1431223307200295E-2</c:v>
+                  <c:v>7.0088880819126204E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.7837548731010305E-2</c:v>
+                  <c:v>7.2963883600452598E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.8803110240516203E-2</c:v>
+                  <c:v>5.9454995864324303E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.73418380565065E-2</c:v>
+                  <c:v>6.0128696501314798E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.7771901983138297E-2</c:v>
+                  <c:v>7.8550069278394294E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.0665859998953995E-2</c:v>
+                  <c:v>7.9120073318110801E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.0134752526451497E-2</c:v>
+                  <c:v>8.4398077589447507E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -813,7 +813,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -896,14 +896,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
                   <a:t>打牌順序を考慮しない場合の</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
                   <a:t>f1score</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -936,7 +936,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1203,106 +1203,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.198085221122555</c:v>
+                  <c:v>0.22276565661956499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24155324482485999</c:v>
+                  <c:v>0.278763594705846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25209350112949502</c:v>
+                  <c:v>0.29382051356598898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28776453414734199</c:v>
+                  <c:v>0.33035380676700798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29953401674552899</c:v>
+                  <c:v>0.35669162373628999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29165340447055499</c:v>
+                  <c:v>0.33515461849803302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.240161951291091</c:v>
+                  <c:v>0.27880736623876501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23469330487493401</c:v>
+                  <c:v>0.26243067954850402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.189172749372268</c:v>
+                  <c:v>0.22619803531087601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19312127610622901</c:v>
+                  <c:v>0.21897704153509001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.244098205828811</c:v>
+                  <c:v>0.27683930852967498</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24534962318758899</c:v>
+                  <c:v>0.28597030971703202</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29338059102449998</c:v>
+                  <c:v>0.32951867098799398</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30470507675674302</c:v>
+                  <c:v>0.335529134499921</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28519694294584003</c:v>
+                  <c:v>0.33300492607524801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24669742911026199</c:v>
+                  <c:v>0.29384277946038001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.240494269109122</c:v>
+                  <c:v>0.277167154016912</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.19679210361852001</c:v>
+                  <c:v>0.22145909643585099</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.197710996565757</c:v>
+                  <c:v>0.22010519731438599</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.24331652135892801</c:v>
+                  <c:v>0.26993825775447999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.25501110529537202</c:v>
+                  <c:v>0.27637940630673202</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.30286670622569201</c:v>
+                  <c:v>0.322395947997207</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.30299891483553099</c:v>
+                  <c:v>0.34776347241569</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.29306793077363402</c:v>
+                  <c:v>0.32923093750212501</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.25313269784195402</c:v>
+                  <c:v>0.29112173035192901</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.241987318658059</c:v>
+                  <c:v>0.27232317947280998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.188856414382614</c:v>
+                  <c:v>0.223298800007039</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.9715540748130897E-2</c:v>
+                  <c:v>7.2572116253209695E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.4751616455400696E-2</c:v>
+                  <c:v>6.6692795080439501E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.7636122171596797E-2</c:v>
+                  <c:v>6.2339189877570797E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.1725360759835701E-2</c:v>
+                  <c:v>5.7816393017319501E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.3243883180756794E-2</c:v>
+                  <c:v>7.6217942107027994E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.3765461994961201E-2</c:v>
+                  <c:v>7.8114150803735904E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.6850311502900698E-2</c:v>
+                  <c:v>8.2846675604691195E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,7 +1476,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1599,7 +1599,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1755,106 +1755,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.188588976866852</c:v>
+                  <c:v>0.20056429953360899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.243310820494408</c:v>
+                  <c:v>0.26683363834960599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25366980906424402</c:v>
+                  <c:v>0.27514784361733002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28929179602336302</c:v>
+                  <c:v>0.31940038735753101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30738251651793702</c:v>
+                  <c:v>0.33519883761401398</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28931217445755297</c:v>
+                  <c:v>0.31811288047934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.240440732516606</c:v>
+                  <c:v>0.27239218574266999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22552010330969799</c:v>
+                  <c:v>0.24718686586566499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18871065857792499</c:v>
+                  <c:v>0.219586124289124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.190304145022961</c:v>
+                  <c:v>0.213954179175671</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22644565625812399</c:v>
+                  <c:v>0.25494631532606499</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.257414064227245</c:v>
+                  <c:v>0.27861790850277701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28798534069937198</c:v>
+                  <c:v>0.316417244902505</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30240193534127102</c:v>
+                  <c:v>0.33476154467445202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29506261544846202</c:v>
+                  <c:v>0.31392782250350398</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24469426629309299</c:v>
+                  <c:v>0.27083829480323202</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.22048705061504001</c:v>
+                  <c:v>0.25416758230451397</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18498209133014701</c:v>
+                  <c:v>0.20178105992564299</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.19274368832562799</c:v>
+                  <c:v>0.198906730419532</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.23348411072433101</c:v>
+                  <c:v>0.25734344989908597</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.24478362172443999</c:v>
+                  <c:v>0.27151029070681998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28486843781286803</c:v>
+                  <c:v>0.31778660675003501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.29805124143713402</c:v>
+                  <c:v>0.330622546236436</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.29030147462892503</c:v>
+                  <c:v>0.31420523135672901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.24951307551862301</c:v>
+                  <c:v>0.27291996295259202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.23159289102339201</c:v>
+                  <c:v>0.25652432717638501</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.18946887341682001</c:v>
+                  <c:v>0.203198100669753</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.1431223307200295E-2</c:v>
+                  <c:v>7.0088880819126204E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.7837548731010305E-2</c:v>
+                  <c:v>7.2963883600452598E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.8803110240516203E-2</c:v>
+                  <c:v>5.9454995864324303E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.73418380565065E-2</c:v>
+                  <c:v>6.0128696501314798E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.7771901983138297E-2</c:v>
+                  <c:v>7.8550069278394294E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.0665859998953995E-2</c:v>
+                  <c:v>7.9120073318110801E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.0134752526451497E-2</c:v>
+                  <c:v>8.4398077589447507E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1866,106 +1866,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.198085221122555</c:v>
+                  <c:v>0.22276565661956499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24155324482485999</c:v>
+                  <c:v>0.278763594705846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25209350112949502</c:v>
+                  <c:v>0.29382051356598898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28776453414734199</c:v>
+                  <c:v>0.33035380676700798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29953401674552899</c:v>
+                  <c:v>0.35669162373628999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29165340447055499</c:v>
+                  <c:v>0.33515461849803302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.240161951291091</c:v>
+                  <c:v>0.27880736623876501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23469330487493401</c:v>
+                  <c:v>0.26243067954850402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.189172749372268</c:v>
+                  <c:v>0.22619803531087601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19312127610622901</c:v>
+                  <c:v>0.21897704153509001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.244098205828811</c:v>
+                  <c:v>0.27683930852967498</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24534962318758899</c:v>
+                  <c:v>0.28597030971703202</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29338059102449998</c:v>
+                  <c:v>0.32951867098799398</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30470507675674302</c:v>
+                  <c:v>0.335529134499921</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28519694294584003</c:v>
+                  <c:v>0.33300492607524801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24669742911026199</c:v>
+                  <c:v>0.29384277946038001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.240494269109122</c:v>
+                  <c:v>0.277167154016912</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.19679210361852001</c:v>
+                  <c:v>0.22145909643585099</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.197710996565757</c:v>
+                  <c:v>0.22010519731438599</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.24331652135892801</c:v>
+                  <c:v>0.26993825775447999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.25501110529537202</c:v>
+                  <c:v>0.27637940630673202</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.30286670622569201</c:v>
+                  <c:v>0.322395947997207</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.30299891483553099</c:v>
+                  <c:v>0.34776347241569</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.29306793077363402</c:v>
+                  <c:v>0.32923093750212501</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.25313269784195402</c:v>
+                  <c:v>0.29112173035192901</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.241987318658059</c:v>
+                  <c:v>0.27232317947280998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.188856414382614</c:v>
+                  <c:v>0.223298800007039</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.9715540748130897E-2</c:v>
+                  <c:v>7.2572116253209695E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.4751616455400696E-2</c:v>
+                  <c:v>6.6692795080439501E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.7636122171596797E-2</c:v>
+                  <c:v>6.2339189877570797E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.1725360759835701E-2</c:v>
+                  <c:v>5.7816393017319501E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.3243883180756794E-2</c:v>
+                  <c:v>7.6217942107027994E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.3765461994961201E-2</c:v>
+                  <c:v>7.8114150803735904E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.6850311502900698E-2</c:v>
+                  <c:v>8.2846675604691195E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2139,7 +2139,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2223,7 +2223,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>打牌順序を考慮した場合の</a:t>
+                  <a:t>打牌順序を考慮する場合の</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -2261,7 +2261,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4032,10 +4032,10 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4046,7 +4046,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4062,16 +4064,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>512856</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>220756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>360456</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68356</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4082,7 +4084,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4099,15 +4103,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>209551</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>51708</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4119,7 +4123,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4436,14 +4440,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EB4E7C-7FEC-134F-B633-3D9A590AF087}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4462,10 +4469,10 @@
         <v>8.5367387537160194E-2</v>
       </c>
       <c r="B2" s="1">
-        <v>0.188588976866852</v>
+        <v>0.20056429953360899</v>
       </c>
       <c r="C2" s="1">
-        <v>0.198085221122555</v>
+        <v>0.22276565661956499</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4479,10 +4486,10 @@
         <v>0.11996870673216201</v>
       </c>
       <c r="B3" s="1">
-        <v>0.243310820494408</v>
+        <v>0.26683363834960599</v>
       </c>
       <c r="C3" s="1">
-        <v>0.24155324482485999</v>
+        <v>0.278763594705846</v>
       </c>
       <c r="D3">
         <v>0.35</v>
@@ -4496,10 +4503,10 @@
         <v>0.13931708434763199</v>
       </c>
       <c r="B4" s="1">
-        <v>0.25366980906424402</v>
+        <v>0.27514784361733002</v>
       </c>
       <c r="C4" s="1">
-        <v>0.25209350112949502</v>
+        <v>0.29382051356598898</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4507,10 +4514,10 @@
         <v>0.16904714988167699</v>
       </c>
       <c r="B5" s="1">
-        <v>0.28929179602336302</v>
+        <v>0.31940038735753101</v>
       </c>
       <c r="C5" s="1">
-        <v>0.28776453414734199</v>
+        <v>0.33035380676700798</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4518,10 +4525,10 @@
         <v>0.17800059444499799</v>
       </c>
       <c r="B6" s="1">
-        <v>0.30738251651793702</v>
+        <v>0.33519883761401398</v>
       </c>
       <c r="C6" s="1">
-        <v>0.29953401674552899</v>
+        <v>0.35669162373628999</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4529,10 +4536,10 @@
         <v>0.167510689692941</v>
       </c>
       <c r="B7" s="1">
-        <v>0.28931217445755297</v>
+        <v>0.31811288047934</v>
       </c>
       <c r="C7" s="1">
-        <v>0.29165340447055499</v>
+        <v>0.33515461849803302</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4540,10 +4547,10 @@
         <v>0.138855126639302</v>
       </c>
       <c r="B8" s="1">
-        <v>0.240440732516606</v>
+        <v>0.27239218574266999</v>
       </c>
       <c r="C8" s="1">
-        <v>0.240161951291091</v>
+        <v>0.27880736623876501</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4551,10 +4558,10 @@
         <v>0.121311867513785</v>
       </c>
       <c r="B9" s="1">
-        <v>0.22552010330969799</v>
+        <v>0.24718686586566499</v>
       </c>
       <c r="C9" s="1">
-        <v>0.23469330487493401</v>
+        <v>0.26243067954850402</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4562,10 +4569,10 @@
         <v>8.6053219984714796E-2</v>
       </c>
       <c r="B10" s="1">
-        <v>0.18871065857792499</v>
+        <v>0.219586124289124</v>
       </c>
       <c r="C10" s="1">
-        <v>0.189172749372268</v>
+        <v>0.22619803531087601</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4573,10 +4580,10 @@
         <v>8.5695772898723793E-2</v>
       </c>
       <c r="B11" s="1">
-        <v>0.190304145022961</v>
+        <v>0.213954179175671</v>
       </c>
       <c r="C11" s="1">
-        <v>0.19312127610622901</v>
+        <v>0.21897704153509001</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4584,10 +4591,10 @@
         <v>0.12044008648028701</v>
       </c>
       <c r="B12" s="1">
-        <v>0.22644565625812399</v>
+        <v>0.25494631532606499</v>
       </c>
       <c r="C12" s="1">
-        <v>0.244098205828811</v>
+        <v>0.27683930852967498</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4595,10 +4602,10 @@
         <v>0.13931708434763199</v>
       </c>
       <c r="B13" s="1">
-        <v>0.257414064227245</v>
+        <v>0.27861790850277701</v>
       </c>
       <c r="C13" s="1">
-        <v>0.24534962318758899</v>
+        <v>0.28597030971703202</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4606,10 +4613,10 @@
         <v>0.16821243694412</v>
       </c>
       <c r="B14" s="1">
-        <v>0.28798534069937198</v>
+        <v>0.316417244902505</v>
       </c>
       <c r="C14" s="1">
-        <v>0.29338059102449998</v>
+        <v>0.32951867098799398</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4617,10 +4624,10 @@
         <v>0.17571744522720001</v>
       </c>
       <c r="B15" s="1">
-        <v>0.30240193534127102</v>
+        <v>0.33476154467445202</v>
       </c>
       <c r="C15" s="1">
-        <v>0.30470507675674302</v>
+        <v>0.335529134499921</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4628,10 +4635,10 @@
         <v>0.16806544869872</v>
       </c>
       <c r="B16" s="1">
-        <v>0.29506261544846202</v>
+        <v>0.31392782250350398</v>
       </c>
       <c r="C16" s="1">
-        <v>0.28519694294584003</v>
+        <v>0.33300492607524801</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4639,10 +4646,10 @@
         <v>0.13869649125043301</v>
       </c>
       <c r="B17" s="1">
-        <v>0.24469426629309299</v>
+        <v>0.27083829480323202</v>
       </c>
       <c r="C17" s="1">
-        <v>0.24669742911026199</v>
+        <v>0.29384277946038001</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4650,10 +4657,10 @@
         <v>0.119243587006791</v>
       </c>
       <c r="B18" s="1">
-        <v>0.22048705061504001</v>
+        <v>0.25416758230451397</v>
       </c>
       <c r="C18" s="1">
-        <v>0.240494269109122</v>
+        <v>0.277167154016912</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4661,10 +4668,10 @@
         <v>8.3826121217663793E-2</v>
       </c>
       <c r="B19" s="1">
-        <v>0.18498209133014701</v>
+        <v>0.20178105992564299</v>
       </c>
       <c r="C19" s="1">
-        <v>0.19679210361852001</v>
+        <v>0.22145909643585099</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4672,10 +4679,10 @@
         <v>8.4081953151276506E-2</v>
       </c>
       <c r="B20" s="1">
-        <v>0.19274368832562799</v>
+        <v>0.198906730419532</v>
       </c>
       <c r="C20" s="1">
-        <v>0.197710996565757</v>
+        <v>0.22010519731438599</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4683,10 +4690,10 @@
         <v>0.11987721760008301</v>
       </c>
       <c r="B21" s="1">
-        <v>0.23348411072433101</v>
+        <v>0.25734344989908597</v>
       </c>
       <c r="C21" s="1">
-        <v>0.24331652135892801</v>
+        <v>0.26993825775447999</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4694,10 +4701,10 @@
         <v>0.13646583863485401</v>
       </c>
       <c r="B22" s="1">
-        <v>0.24478362172443999</v>
+        <v>0.27151029070681998</v>
       </c>
       <c r="C22" s="1">
-        <v>0.25501110529537202</v>
+        <v>0.27637940630673202</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4705,10 +4712,10 @@
         <v>0.16573052127742199</v>
       </c>
       <c r="B23" s="1">
-        <v>0.28486843781286803</v>
+        <v>0.31778660675003501</v>
       </c>
       <c r="C23" s="1">
-        <v>0.30286670622569201</v>
+        <v>0.322395947997207</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4716,10 +4723,10 @@
         <v>0.17559816732972899</v>
       </c>
       <c r="B24" s="1">
-        <v>0.29805124143713402</v>
+        <v>0.330622546236436</v>
       </c>
       <c r="C24" s="1">
-        <v>0.30299891483553099</v>
+        <v>0.34776347241569</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4727,10 +4734,10 @@
         <v>0.16682847732447401</v>
       </c>
       <c r="B25" s="1">
-        <v>0.29030147462892503</v>
+        <v>0.31420523135672901</v>
       </c>
       <c r="C25" s="1">
-        <v>0.29306793077363402</v>
+        <v>0.32923093750212501</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4738,10 +4745,10 @@
         <v>0.13690825016824301</v>
       </c>
       <c r="B26" s="1">
-        <v>0.24951307551862301</v>
+        <v>0.27291996295259202</v>
       </c>
       <c r="C26" s="1">
-        <v>0.25313269784195402</v>
+        <v>0.29112173035192901</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4749,10 +4756,10 @@
         <v>0.119539334423872</v>
       </c>
       <c r="B27" s="1">
-        <v>0.23159289102339201</v>
+        <v>0.25652432717638501</v>
       </c>
       <c r="C27" s="1">
-        <v>0.241987318658059</v>
+        <v>0.27232317947280998</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4760,10 +4767,10 @@
         <v>8.4345023309708E-2</v>
       </c>
       <c r="B28" s="1">
-        <v>0.18946887341682001</v>
+        <v>0.203198100669753</v>
       </c>
       <c r="C28" s="1">
-        <v>0.188856414382614</v>
+        <v>0.223298800007039</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4771,10 +4778,10 @@
         <v>2.89541120811658E-2</v>
       </c>
       <c r="B29" s="1">
-        <v>7.1431223307200295E-2</v>
+        <v>7.0088880819126204E-2</v>
       </c>
       <c r="C29" s="1">
-        <v>6.9715540748130897E-2</v>
+        <v>7.2572116253209695E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4782,10 +4789,10 @@
         <v>2.9023725907615299E-2</v>
       </c>
       <c r="B30" s="1">
-        <v>6.7837548731010305E-2</v>
+        <v>7.2963883600452598E-2</v>
       </c>
       <c r="C30" s="1">
-        <v>7.4751616455400696E-2</v>
+        <v>6.6692795080439501E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4793,10 +4800,10 @@
         <v>2.4154399254921199E-2</v>
       </c>
       <c r="B31" s="1">
-        <v>5.8803110240516203E-2</v>
+        <v>5.9454995864324303E-2</v>
       </c>
       <c r="C31" s="1">
-        <v>5.7636122171596797E-2</v>
+        <v>6.2339189877570797E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4804,10 +4811,10 @@
         <v>2.5707749198626499E-2</v>
       </c>
       <c r="B32" s="1">
-        <v>5.73418380565065E-2</v>
+        <v>6.0128696501314798E-2</v>
       </c>
       <c r="C32" s="1">
-        <v>6.1725360759835701E-2</v>
+        <v>5.7816393017319501E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4815,10 +4822,10 @@
         <v>3.26908236762537E-2</v>
       </c>
       <c r="B33" s="1">
-        <v>7.7771901983138297E-2</v>
+        <v>7.8550069278394294E-2</v>
       </c>
       <c r="C33" s="1">
-        <v>7.3243883180756794E-2</v>
+        <v>7.6217942107027994E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4826,10 +4833,10 @@
         <v>3.2459621247793197E-2</v>
       </c>
       <c r="B34" s="1">
-        <v>8.0665859998953995E-2</v>
+        <v>7.9120073318110801E-2</v>
       </c>
       <c r="C34" s="1">
-        <v>7.3765461994961201E-2</v>
+        <v>7.8114150803735904E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4837,10 +4844,10 @@
         <v>3.26214686532421E-2</v>
       </c>
       <c r="B35" s="1">
-        <v>8.0134752526451497E-2</v>
+        <v>8.4398077589447507E-2</v>
       </c>
       <c r="C35" s="1">
-        <v>7.6850311502900698E-2</v>
+        <v>8.2846675604691195E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4852,11 +4859,11 @@
       </c>
       <c r="C37" s="4">
         <f>C2-B2</f>
-        <v>9.4962442557030013E-3</v>
+        <v>2.2201357085955997E-2</v>
       </c>
       <c r="D37">
         <f>C37/B2 * 100</f>
-        <v>5.0354185135685636</v>
+        <v>11.069446126545401</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4865,11 +4872,11 @@
       </c>
       <c r="C38" s="4">
         <f t="shared" ref="C38:C59" si="0">C3-B3</f>
-        <v>-1.7575756695480116E-3</v>
+        <v>1.1929956356240001E-2</v>
       </c>
       <c r="D38">
         <f t="shared" ref="D38:D70" si="1">C38*100/B3</f>
-        <v>-0.72235820255614402</v>
+        <v>4.4709341858200604</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4878,11 +4885,11 @@
       </c>
       <c r="C39" s="4">
         <f t="shared" si="0"/>
-        <v>-1.5763079347489994E-3</v>
+        <v>1.867266994865896E-2</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>-0.6214014748399902</v>
+        <v>6.7864133344357684</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4891,11 +4898,11 @@
       </c>
       <c r="C40" s="4">
         <f t="shared" si="0"/>
-        <v>-1.5272618760210355E-3</v>
+        <v>1.0953419409476972E-2</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>-0.5279312780434654</v>
+        <v>3.4293694820150336</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4904,11 +4911,11 @@
       </c>
       <c r="C41" s="4">
         <f t="shared" si="0"/>
-        <v>-7.8484997724080352E-3</v>
+        <v>2.1492786122276009E-2</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>-2.5533331763031626</v>
+        <v>6.4119512690629445</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4917,11 +4924,11 @@
       </c>
       <c r="C42" s="4">
         <f t="shared" si="0"/>
-        <v>2.3412300130020158E-3</v>
+        <v>1.704173801869302E-2</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>0.80924005959711665</v>
+        <v>5.357135490085823</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4930,11 +4937,11 @@
       </c>
       <c r="C43" s="4">
         <f t="shared" si="0"/>
-        <v>-2.7878122551500129E-4</v>
+        <v>6.4151804960950187E-3</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>-0.11594592255525894</v>
+        <v>2.3551264800802567</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4943,11 +4950,11 @@
       </c>
       <c r="C44" s="4">
         <f t="shared" si="0"/>
-        <v>9.1732015652360166E-3</v>
+        <v>1.524381368283903E-2</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>4.0675759857376512</v>
+        <v>6.1669189539881781</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4956,11 +4963,11 @@
       </c>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
-        <v>4.6209079434300637E-4</v>
+        <v>6.6119110217520149E-3</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>0.24486735292283107</v>
+        <v>3.0110787023346992</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4969,11 +4976,11 @@
       </c>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
-        <v>2.8171310832680041E-3</v>
+        <v>5.0228623594190114E-3</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>1.4803309107786933</v>
+        <v>2.3476346097894627</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4982,11 +4989,11 @@
       </c>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
-        <v>1.7652549570687015E-2</v>
+        <v>2.1892993203609989E-2</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>7.7954904776645328</v>
+        <v>8.5872953980958027</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4995,11 +5002,11 @@
       </c>
       <c r="C48" s="4">
         <f t="shared" si="0"/>
-        <v>-1.206444103965601E-2</v>
+        <v>7.352401214255011E-3</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>-4.6867839470517536</v>
+        <v>2.6388832124126469</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -5008,11 +5015,11 @@
       </c>
       <c r="C49" s="4">
         <f t="shared" si="0"/>
-        <v>5.3952503251279982E-3</v>
+        <v>1.3101426085488976E-2</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>1.8734461664005677</v>
+        <v>4.1405537455854562</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -5021,11 +5028,11 @@
       </c>
       <c r="C50" s="4">
         <f>C15-B15</f>
-        <v>2.3031414154719987E-3</v>
+        <v>7.6758982546898391E-4</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>0.76161596415473465</v>
+        <v>0.22929450460489648</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -5034,11 +5041,11 @@
       </c>
       <c r="C51" s="4">
         <f t="shared" si="0"/>
-        <v>-9.8656725026219916E-3</v>
+        <v>1.9077103571744025E-2</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>-3.3435860682070069</v>
+        <v>6.0769075577973313</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -5047,11 +5054,11 @@
       </c>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
-        <v>2.0031628171690019E-3</v>
+        <v>2.3004484657147994E-2</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>0.81863905007468718</v>
+        <v>8.4938079653252458</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -5060,11 +5067,11 @@
       </c>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
-        <v>2.0007218494081991E-2</v>
+        <v>2.2999571712398026E-2</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>9.07410137614551</v>
+        <v>9.0489792222371701</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -5073,11 +5080,11 @@
       </c>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
-        <v>1.1810012288373001E-2</v>
+        <v>1.9678036510207997E-2</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>6.3844084600033337</v>
+        <v>9.7521722392871855</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -5086,11 +5093,11 @@
       </c>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
-        <v>4.9673082401290036E-3</v>
+        <v>2.1198466894853996E-2</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>2.5771574069585395</v>
+        <v>10.657491001004546</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -5099,11 +5106,11 @@
       </c>
       <c r="C56" s="4">
         <f t="shared" si="0"/>
-        <v>9.8324106345969997E-3</v>
+        <v>1.2594807855394019E-2</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>4.2111690616094588</v>
+        <v>4.8941629796029069</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -5112,11 +5119,11 @@
       </c>
       <c r="C57" s="4">
         <f t="shared" si="0"/>
-        <v>1.0227483570932033E-2</v>
+        <v>4.8691155999120439E-3</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>4.1781731550836394</v>
+        <v>1.7933447705559611</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -5125,11 +5132,11 @@
       </c>
       <c r="C58" s="4">
         <f>C23-B23</f>
-        <v>1.7998268412823981E-2</v>
+        <v>4.6093412471719941E-3</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>6.3180984706516217</v>
+        <v>1.4504517022637193</v>
       </c>
     </row>
     <row r="59" spans="2:4">
@@ -5138,11 +5145,11 @@
       </c>
       <c r="C59" s="4">
         <f t="shared" si="0"/>
-        <v>4.9476733983969678E-3</v>
+        <v>1.7140926179254001E-2</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>1.6600076465175697</v>
+        <v>5.1844395896086652</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -5151,11 +5158,11 @@
       </c>
       <c r="C60" s="4">
         <f t="shared" ref="C60:C68" si="2">C25-B25</f>
-        <v>2.7664561447089953E-3</v>
+        <v>1.5025706145396001E-2</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>0.9529597285873902</v>
+        <v>4.7821311187326323</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -5164,11 +5171,11 @@
       </c>
       <c r="C61" s="4">
         <f t="shared" si="2"/>
-        <v>3.6196223233310176E-3</v>
+        <v>1.8201767399336988E-2</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>1.4506744048613429</v>
+        <v>6.6692693353834116</v>
       </c>
     </row>
     <row r="62" spans="2:4">
@@ -5177,11 +5184,11 @@
       </c>
       <c r="C62" s="4">
         <f t="shared" si="2"/>
-        <v>1.0394427634666997E-2</v>
+        <v>1.579885229642497E-2</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>4.4882326002040847</v>
+        <v>6.1588124878159212</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -5190,11 +5197,11 @@
       </c>
       <c r="C63" s="4">
         <f t="shared" si="2"/>
-        <v>-6.1245903420600878E-4</v>
+        <v>2.0100699337286004E-2</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>-0.3232504754797566</v>
+        <v>9.892168908583745</v>
       </c>
     </row>
     <row r="64" spans="2:4">
@@ -5203,11 +5210,11 @@
       </c>
       <c r="C64" s="4">
         <f t="shared" si="2"/>
-        <v>-1.715682559069398E-3</v>
+        <v>2.4832354340834917E-3</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>-2.401866410282318</v>
+        <v>3.5429805770359142</v>
       </c>
     </row>
     <row r="65" spans="2:4">
@@ -5216,11 +5223,11 @@
       </c>
       <c r="C65" s="4">
         <f t="shared" si="2"/>
-        <v>6.9140677243903909E-3</v>
+        <v>-6.2710885200130961E-3</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>10.192095460002657</v>
+        <v>-8.5947844475402846</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -5229,11 +5236,11 @@
       </c>
       <c r="C66" s="4">
         <f t="shared" si="2"/>
-        <v>-1.1669880689194057E-3</v>
+        <v>2.8841940132464938E-3</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>-1.9845686123509396</v>
+        <v>4.851054097839306</v>
       </c>
     </row>
     <row r="67" spans="2:4">
@@ -5242,11 +5249,11 @@
       </c>
       <c r="C67" s="4">
         <f t="shared" si="2"/>
-        <v>4.3835227033292012E-3</v>
+        <v>-2.3123034839952969E-3</v>
       </c>
       <c r="D67">
         <f t="shared" si="1"/>
-        <v>7.6445451556846438</v>
+        <v>-3.8455905724560902</v>
       </c>
     </row>
     <row r="68" spans="2:4">
@@ -5255,11 +5262,11 @@
       </c>
       <c r="C68" s="4">
         <f t="shared" si="2"/>
-        <v>-4.5280188023815032E-3</v>
+        <v>-2.3321271713662994E-3</v>
       </c>
       <c r="D68">
         <f t="shared" si="1"/>
-        <v>-5.8221783020855291</v>
+        <v>-2.9689689554580267</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -5268,11 +5275,11 @@
       </c>
       <c r="C69" s="4">
         <f t="shared" ref="C69:C70" si="3">C34-B34</f>
-        <v>-6.9003980039927942E-3</v>
+        <v>-1.0059225143748962E-3</v>
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
-        <v>-8.5542979447343299</v>
+        <v>-1.2713872373834592</v>
       </c>
     </row>
     <row r="70" spans="2:4">
@@ -5281,18 +5288,18 @@
       </c>
       <c r="C70" s="4">
         <f t="shared" si="3"/>
-        <v>-3.2844410235507993E-3</v>
+        <v>-1.5514019847563121E-3</v>
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
-        <v>-4.0986474906335371</v>
+        <v>-1.838195879653884</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="C71" s="4"/>
       <c r="D71" s="4">
         <f>SUM(D37:D70)/34</f>
-        <v>1.3606499441789992</v>
+        <v>4.16856711633642</v>
       </c>
     </row>
     <row r="72" spans="2:4">
